--- a/Agile_Template_AdwaitSalankar.xlsx
+++ b/Agile_Template_AdwaitSalankar.xlsx
@@ -280,7 +280,7 @@
     <t>Provide a user interface for querying financial data and retrieving contextual responses from the LLM.</t>
   </si>
   <si>
-    <t>Cohere LLM integration</t>
+    <t>LLM integration</t>
   </si>
   <si>
     <t>Build and deploy the final OCR application for end-to-end financial document analysis.</t>
@@ -1487,7 +1487,7 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
